--- a/Data/Norwich_Positions_notcomp.xlsx
+++ b/Data/Norwich_Positions_notcomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\Football Analytics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F5012-6259-42B7-8520-E4C6E377EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC0B4E-ED7E-4033-B263-1206E130E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{873DB0DF-64B8-4B92-B2C1-94DC1ED76085}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB34F4-DE30-40D0-B716-AD246D77C3A7}">
   <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,6 +1613,15 @@
       <c r="AM7">
         <v>6</v>
       </c>
+      <c r="AN7">
+        <v>6</v>
+      </c>
+      <c r="AO7">
+        <v>6</v>
+      </c>
+      <c r="AP7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
